--- a/datos_dropcontrol/2025-08-06.xlsx
+++ b/datos_dropcontrol/2025-08-06.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J2"/>
+  <dimension ref="A1:J3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -491,7 +491,7 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45875.04187768449</v>
+        <v>45875.04187768519</v>
       </c>
       <c r="B2" t="n">
         <v>2025</v>
@@ -522,6 +522,42 @@
       <c r="J2" t="inlineStr">
         <is>
           <t>01:00:18</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>45875.08356718349</v>
+      </c>
+      <c r="B3" t="n">
+        <v>2025</v>
+      </c>
+      <c r="C3" t="n">
+        <v>23</v>
+      </c>
+      <c r="D3" t="n">
+        <v>13.72</v>
+      </c>
+      <c r="E3" t="n">
+        <v>92.37</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="n">
+        <v>4.12</v>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>02:00:20</t>
         </is>
       </c>
     </row>

--- a/datos_dropcontrol/2025-08-06.xlsx
+++ b/datos_dropcontrol/2025-08-06.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J3"/>
+  <dimension ref="A1:J4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -527,7 +527,7 @@
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45875.08356718349</v>
+        <v>45875.0835671875</v>
       </c>
       <c r="B3" t="n">
         <v>2025</v>
@@ -558,6 +558,42 @@
       <c r="J3" t="inlineStr">
         <is>
           <t>02:00:20</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>45875.12516701442</v>
+      </c>
+      <c r="B4" t="n">
+        <v>2025</v>
+      </c>
+      <c r="C4" t="n">
+        <v>23</v>
+      </c>
+      <c r="D4" t="n">
+        <v>13.72</v>
+      </c>
+      <c r="E4" t="n">
+        <v>92.56</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" t="n">
+        <v>4.47</v>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>NW</t>
+        </is>
+      </c>
+      <c r="I4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>03:00:14</t>
         </is>
       </c>
     </row>

--- a/datos_dropcontrol/2025-08-06.xlsx
+++ b/datos_dropcontrol/2025-08-06.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J4"/>
+  <dimension ref="A1:J5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -563,7 +563,7 @@
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45875.12516701442</v>
+        <v>45875.12516701389</v>
       </c>
       <c r="B4" t="n">
         <v>2025</v>
@@ -594,6 +594,42 @@
       <c r="J4" t="inlineStr">
         <is>
           <t>03:00:14</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>45875.20850464647</v>
+      </c>
+      <c r="B5" t="n">
+        <v>2025</v>
+      </c>
+      <c r="C5" t="n">
+        <v>23</v>
+      </c>
+      <c r="D5" t="n">
+        <v>13.67</v>
+      </c>
+      <c r="E5" t="n">
+        <v>92.84</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>NW</t>
+        </is>
+      </c>
+      <c r="I5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>05:00:14</t>
         </is>
       </c>
     </row>

--- a/datos_dropcontrol/2025-08-06.xlsx
+++ b/datos_dropcontrol/2025-08-06.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J5"/>
+  <dimension ref="A1:J6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -599,7 +599,7 @@
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45875.20850464647</v>
+        <v>45875.2085046412</v>
       </c>
       <c r="B5" t="n">
         <v>2025</v>
@@ -630,6 +630,42 @@
       <c r="J5" t="inlineStr">
         <is>
           <t>05:00:14</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>45875.25017235359</v>
+      </c>
+      <c r="B6" t="n">
+        <v>2025</v>
+      </c>
+      <c r="C6" t="n">
+        <v>23</v>
+      </c>
+      <c r="D6" t="n">
+        <v>13.72</v>
+      </c>
+      <c r="E6" t="n">
+        <v>92.84</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>06:00:14</t>
         </is>
       </c>
     </row>

--- a/datos_dropcontrol/2025-08-06.xlsx
+++ b/datos_dropcontrol/2025-08-06.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J6"/>
+  <dimension ref="A1:J7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -635,7 +635,7 @@
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>45875.25017235359</v>
+        <v>45875.25017234954</v>
       </c>
       <c r="B6" t="n">
         <v>2025</v>
@@ -666,6 +666,42 @@
       <c r="J6" t="inlineStr">
         <is>
           <t>06:00:14</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>45875.33361880832</v>
+      </c>
+      <c r="B7" t="n">
+        <v>2025</v>
+      </c>
+      <c r="C7" t="n">
+        <v>23</v>
+      </c>
+      <c r="D7" t="n">
+        <v>13.94</v>
+      </c>
+      <c r="E7" t="n">
+        <v>93.20999999999999</v>
+      </c>
+      <c r="F7" t="n">
+        <v>59.77</v>
+      </c>
+      <c r="G7" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>NW</t>
+        </is>
+      </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>08:00:24</t>
         </is>
       </c>
     </row>

--- a/datos_dropcontrol/2025-08-06.xlsx
+++ b/datos_dropcontrol/2025-08-06.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J7"/>
+  <dimension ref="A1:J8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -671,7 +671,7 @@
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>45875.33361880832</v>
+        <v>45875.33361880787</v>
       </c>
       <c r="B7" t="n">
         <v>2025</v>
@@ -702,6 +702,42 @@
       <c r="J7" t="inlineStr">
         <is>
           <t>08:00:24</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>45875.37517995218</v>
+      </c>
+      <c r="B8" t="n">
+        <v>2025</v>
+      </c>
+      <c r="C8" t="n">
+        <v>23</v>
+      </c>
+      <c r="D8" t="n">
+        <v>15.44</v>
+      </c>
+      <c r="E8" t="n">
+        <v>93.40000000000001</v>
+      </c>
+      <c r="F8" t="n">
+        <v>319.92</v>
+      </c>
+      <c r="G8" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>SE</t>
+        </is>
+      </c>
+      <c r="I8" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>09:00:15</t>
         </is>
       </c>
     </row>

--- a/datos_dropcontrol/2025-08-06.xlsx
+++ b/datos_dropcontrol/2025-08-06.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J8"/>
+  <dimension ref="A1:J9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -707,7 +707,7 @@
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>45875.37517995218</v>
+        <v>45875.37517995371</v>
       </c>
       <c r="B8" t="n">
         <v>2025</v>
@@ -738,6 +738,42 @@
       <c r="J8" t="inlineStr">
         <is>
           <t>09:00:15</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>45875.41708634486</v>
+      </c>
+      <c r="B9" t="n">
+        <v>2025</v>
+      </c>
+      <c r="C9" t="n">
+        <v>23</v>
+      </c>
+      <c r="D9" t="n">
+        <v>18.06</v>
+      </c>
+      <c r="E9" t="n">
+        <v>83.13</v>
+      </c>
+      <c r="F9" t="n">
+        <v>457.03</v>
+      </c>
+      <c r="G9" t="n">
+        <v>7.54</v>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>ESE</t>
+        </is>
+      </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>10:00:36</t>
         </is>
       </c>
     </row>

--- a/datos_dropcontrol/2025-08-06.xlsx
+++ b/datos_dropcontrol/2025-08-06.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J9"/>
+  <dimension ref="A1:J10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -743,7 +743,7 @@
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>45875.41708634486</v>
+        <v>45875.41708634259</v>
       </c>
       <c r="B9" t="n">
         <v>2025</v>
@@ -774,6 +774,42 @@
       <c r="J9" t="inlineStr">
         <is>
           <t>10:00:36</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>45875.45855712878</v>
+      </c>
+      <c r="B10" t="n">
+        <v>2025</v>
+      </c>
+      <c r="C10" t="n">
+        <v>23</v>
+      </c>
+      <c r="D10" t="n">
+        <v>19.33</v>
+      </c>
+      <c r="E10" t="n">
+        <v>78.64</v>
+      </c>
+      <c r="F10" t="n">
+        <v>564.26</v>
+      </c>
+      <c r="G10" t="n">
+        <v>11.2</v>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>ESE</t>
+        </is>
+      </c>
+      <c r="I10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>11:00:19</t>
         </is>
       </c>
     </row>

--- a/datos_dropcontrol/2025-08-06.xlsx
+++ b/datos_dropcontrol/2025-08-06.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J10"/>
+  <dimension ref="A1:J11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -779,7 +779,7 @@
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>45875.45855712878</v>
+        <v>45875.45855712963</v>
       </c>
       <c r="B10" t="n">
         <v>2025</v>
@@ -810,6 +810,42 @@
       <c r="J10" t="inlineStr">
         <is>
           <t>11:00:19</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>45875.50018407633</v>
+      </c>
+      <c r="B11" t="n">
+        <v>2025</v>
+      </c>
+      <c r="C11" t="n">
+        <v>23</v>
+      </c>
+      <c r="D11" t="n">
+        <v>20.44</v>
+      </c>
+      <c r="E11" t="n">
+        <v>75.47</v>
+      </c>
+      <c r="F11" t="n">
+        <v>613.48</v>
+      </c>
+      <c r="G11" t="n">
+        <v>11.61</v>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>ESE</t>
+        </is>
+      </c>
+      <c r="I11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>12:00:15</t>
         </is>
       </c>
     </row>

--- a/datos_dropcontrol/2025-08-06.xlsx
+++ b/datos_dropcontrol/2025-08-06.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J11"/>
+  <dimension ref="A1:J12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -815,7 +815,7 @@
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>45875.50018407633</v>
+        <v>45875.50018407407</v>
       </c>
       <c r="B11" t="n">
         <v>2025</v>
@@ -846,6 +846,42 @@
       <c r="J11" t="inlineStr">
         <is>
           <t>12:00:15</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>45875.58351274548</v>
+      </c>
+      <c r="B12" t="n">
+        <v>2025</v>
+      </c>
+      <c r="C12" t="n">
+        <v>23</v>
+      </c>
+      <c r="D12" t="n">
+        <v>22.89</v>
+      </c>
+      <c r="E12" t="n">
+        <v>70.14</v>
+      </c>
+      <c r="F12" t="n">
+        <v>72.06999999999999</v>
+      </c>
+      <c r="G12" t="n">
+        <v>15.36</v>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>ESE</t>
+        </is>
+      </c>
+      <c r="I12" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>14:00:15</t>
         </is>
       </c>
     </row>

--- a/datos_dropcontrol/2025-08-06.xlsx
+++ b/datos_dropcontrol/2025-08-06.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J12"/>
+  <dimension ref="A1:J13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -851,7 +851,7 @@
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>45875.58351274548</v>
+        <v>45875.58351274305</v>
       </c>
       <c r="B12" t="n">
         <v>2025</v>
@@ -882,6 +882,42 @@
       <c r="J12" t="inlineStr">
         <is>
           <t>14:00:15</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>45875.66686240357</v>
+      </c>
+      <c r="B13" t="n">
+        <v>2025</v>
+      </c>
+      <c r="C13" t="n">
+        <v>23</v>
+      </c>
+      <c r="D13" t="n">
+        <v>22.17</v>
+      </c>
+      <c r="E13" t="n">
+        <v>70.98</v>
+      </c>
+      <c r="F13" t="n">
+        <v>288.28</v>
+      </c>
+      <c r="G13" t="n">
+        <v>12.81</v>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>ESE</t>
+        </is>
+      </c>
+      <c r="I13" t="n">
+        <v>0</v>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>16:00:16</t>
         </is>
       </c>
     </row>

--- a/datos_dropcontrol/2025-08-06.xlsx
+++ b/datos_dropcontrol/2025-08-06.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J13"/>
+  <dimension ref="A1:J14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -887,7 +887,7 @@
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>45875.66686240357</v>
+        <v>45875.66686240741</v>
       </c>
       <c r="B13" t="n">
         <v>2025</v>
@@ -918,6 +918,42 @@
       <c r="J13" t="inlineStr">
         <is>
           <t>16:00:16</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>45875.70852886758</v>
+      </c>
+      <c r="B14" t="n">
+        <v>2025</v>
+      </c>
+      <c r="C14" t="n">
+        <v>23</v>
+      </c>
+      <c r="D14" t="n">
+        <v>20.78</v>
+      </c>
+      <c r="E14" t="n">
+        <v>74.25</v>
+      </c>
+      <c r="F14" t="n">
+        <v>135.35</v>
+      </c>
+      <c r="G14" t="n">
+        <v>9.619999999999999</v>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>ESE</t>
+        </is>
+      </c>
+      <c r="I14" t="n">
+        <v>0</v>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>17:00:16</t>
         </is>
       </c>
     </row>

--- a/datos_dropcontrol/2025-08-06.xlsx
+++ b/datos_dropcontrol/2025-08-06.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\mi-app-humedad\datos_dropcontrol\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C93B6C2-CFDE-455E-968F-76ACAE0305FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9473AC6-0360-47C4-AFC5-3109BA6BEFF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="17385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="0" windowWidth="14610" windowHeight="17385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="29">
   <si>
     <t>Fecha</t>
   </si>
@@ -114,7 +114,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -170,7 +170,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -473,10 +473,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J14"/>
+  <dimension ref="A1:J20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -524,7 +524,7 @@
         <v>2025</v>
       </c>
       <c r="C2">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="D2">
         <v>13.83</v>
@@ -556,7 +556,7 @@
         <v>2025</v>
       </c>
       <c r="C3">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="D3">
         <v>13.72</v>
@@ -588,7 +588,7 @@
         <v>2025</v>
       </c>
       <c r="C4">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="D4">
         <v>13.72</v>
@@ -620,7 +620,7 @@
         <v>2025</v>
       </c>
       <c r="C5">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="D5">
         <v>13.67</v>
@@ -652,7 +652,7 @@
         <v>2025</v>
       </c>
       <c r="C6">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="D6">
         <v>13.72</v>
@@ -684,7 +684,7 @@
         <v>2025</v>
       </c>
       <c r="C7">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="D7">
         <v>13.94</v>
@@ -716,7 +716,7 @@
         <v>2025</v>
       </c>
       <c r="C8">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="D8">
         <v>15.44</v>
@@ -748,7 +748,7 @@
         <v>2025</v>
       </c>
       <c r="C9">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="D9">
         <v>18.059999999999999</v>
@@ -780,7 +780,7 @@
         <v>2025</v>
       </c>
       <c r="C10">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="D10">
         <v>19.329999999999998</v>
@@ -812,7 +812,7 @@
         <v>2025</v>
       </c>
       <c r="C11">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="D11">
         <v>20.440000000000001</v>
@@ -844,7 +844,7 @@
         <v>2025</v>
       </c>
       <c r="C12">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="D12">
         <v>22.89</v>
@@ -876,7 +876,7 @@
         <v>2025</v>
       </c>
       <c r="C13">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="D13">
         <v>22.17</v>
@@ -908,7 +908,7 @@
         <v>2025</v>
       </c>
       <c r="C14">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="D14">
         <v>20.78</v>
@@ -932,7 +932,182 @@
         <v>28</v>
       </c>
     </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15" s="2">
+        <v>45816.75</v>
+      </c>
+      <c r="B15">
+        <v>2025</v>
+      </c>
+      <c r="C15">
+        <v>32</v>
+      </c>
+      <c r="D15">
+        <v>16.43</v>
+      </c>
+      <c r="E15">
+        <v>84.13</v>
+      </c>
+      <c r="F15">
+        <v>0.88</v>
+      </c>
+      <c r="G15">
+        <v>4.6100000000000003</v>
+      </c>
+      <c r="H15" t="s">
+        <v>12</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16" s="2">
+        <v>45816.791666666664</v>
+      </c>
+      <c r="B16">
+        <v>2025</v>
+      </c>
+      <c r="C16">
+        <v>32</v>
+      </c>
+      <c r="D16">
+        <v>15.04</v>
+      </c>
+      <c r="E16">
+        <v>87.73</v>
+      </c>
+      <c r="F16">
+        <v>0</v>
+      </c>
+      <c r="G16">
+        <v>3.93</v>
+      </c>
+      <c r="H16" t="s">
+        <v>12</v>
+      </c>
+      <c r="I16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" s="2">
+        <v>45816.833333333336</v>
+      </c>
+      <c r="B17">
+        <v>2025</v>
+      </c>
+      <c r="C17">
+        <v>32</v>
+      </c>
+      <c r="D17">
+        <v>14.39</v>
+      </c>
+      <c r="E17">
+        <v>90.48</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>4.05</v>
+      </c>
+      <c r="H17" t="s">
+        <v>22</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18" s="2">
+        <v>45816.875</v>
+      </c>
+      <c r="B18">
+        <v>2025</v>
+      </c>
+      <c r="C18">
+        <v>32</v>
+      </c>
+      <c r="D18">
+        <v>14.35</v>
+      </c>
+      <c r="E18">
+        <v>91.32</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0.5</v>
+      </c>
+      <c r="H18" t="s">
+        <v>12</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19" s="2">
+        <v>45816.916666666664</v>
+      </c>
+      <c r="B19">
+        <v>2025</v>
+      </c>
+      <c r="C19">
+        <v>32</v>
+      </c>
+      <c r="D19">
+        <v>14.32</v>
+      </c>
+      <c r="E19">
+        <v>91.42</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <v>1.65</v>
+      </c>
+      <c r="H19" t="s">
+        <v>12</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20" s="2">
+        <v>45816.958333333336</v>
+      </c>
+      <c r="B20">
+        <v>2025</v>
+      </c>
+      <c r="C20">
+        <v>32</v>
+      </c>
+      <c r="D20">
+        <v>14.14</v>
+      </c>
+      <c r="E20">
+        <v>91.56</v>
+      </c>
+      <c r="F20">
+        <v>0</v>
+      </c>
+      <c r="G20">
+        <v>0.73</v>
+      </c>
+      <c r="H20" t="s">
+        <v>22</v>
+      </c>
+      <c r="I20">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/datos_dropcontrol/2025-08-06.xlsx
+++ b/datos_dropcontrol/2025-08-06.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\mi-app-humedad\datos_dropcontrol\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9473AC6-0360-47C4-AFC5-3109BA6BEFF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B83AF47-1B66-4C9C-B7C5-53BD69AE352B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="0" windowWidth="14610" windowHeight="17385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="17385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -476,7 +476,7 @@
   <dimension ref="A1:J20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -902,7 +902,7 @@
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
-        <v>45875.708528867581</v>
+        <v>45875.70853009259</v>
       </c>
       <c r="B14">
         <v>2025</v>
@@ -934,7 +934,7 @@
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
-        <v>45816.75</v>
+        <v>45875.750196759262</v>
       </c>
       <c r="B15">
         <v>2025</v>
@@ -963,7 +963,7 @@
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
-        <v>45816.791666666664</v>
+        <v>45875.791863425926</v>
       </c>
       <c r="B16">
         <v>2025</v>
@@ -992,7 +992,7 @@
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
-        <v>45816.833333333336</v>
+        <v>45875.83353009259</v>
       </c>
       <c r="B17">
         <v>2025</v>
@@ -1021,7 +1021,7 @@
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
-        <v>45816.875</v>
+        <v>45875.875196759262</v>
       </c>
       <c r="B18">
         <v>2025</v>
@@ -1050,7 +1050,7 @@
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
-        <v>45816.916666666664</v>
+        <v>45875.916863425926</v>
       </c>
       <c r="B19">
         <v>2025</v>
@@ -1079,7 +1079,7 @@
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
-        <v>45816.958333333336</v>
+        <v>45875.95853009259</v>
       </c>
       <c r="B20">
         <v>2025</v>
